--- a/views/financeiro/relatorios/resumo_campanha_64.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_64.xlsx
@@ -870,10 +870,10 @@
         <v>35.11</v>
       </c>
       <c r="H19" s="8">
-        <v>1900.0</v>
+        <v>3511.0</v>
       </c>
       <c r="I19" s="8">
-        <v>38.0</v>
+        <v>70.22</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -896,10 +896,10 @@
         <v>35.11</v>
       </c>
       <c r="H20" s="9">
-        <v>1900.0</v>
+        <v>3511.0</v>
       </c>
       <c r="I20" s="9">
-        <v>38.0</v>
+        <v>70.22</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1005,10 +1005,10 @@
         <v>35.11</v>
       </c>
       <c r="H25" s="8">
-        <v>1900.0</v>
+        <v>3511.0</v>
       </c>
       <c r="I25" s="8">
-        <v>38.0</v>
+        <v>70.22</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1031,10 +1031,10 @@
         <v>68.0061</v>
       </c>
       <c r="H26" s="9">
-        <v>4589.61</v>
+        <v>6200.61</v>
       </c>
       <c r="I26" s="9">
-        <v>91.7922</v>
+        <v>124.0122</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1152,10 +1152,10 @@
         <v>13116.66</v>
       </c>
       <c r="E36" s="13">
-        <v>11505.66</v>
+        <v>13116.66</v>
       </c>
       <c r="F36" s="12">
-        <v>1611.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1169,11 +1169,11 @@
       </c>
       <c r="E37" s="9">
         <f>sum(E30:E36)</f>
-        <v>57762.5</v>
+        <v>59373.5</v>
       </c>
       <c r="F37" s="9">
         <f>sum(F30:F36)</f>
-        <v>2211</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="E38" s="15">
         <f>(E37/D37)</f>
-        <v>0.96313371739185</v>
+        <v>0.98999558138178</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="E39" s="15">
         <f>(F37/D37)</f>
-        <v>0.036866282608152</v>
+        <v>0.010004418618223</v>
       </c>
     </row>
   </sheetData>
